--- a/Mega Byte Jam 2025/Classeur1.xlsx
+++ b/Mega Byte Jam 2025/Classeur1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\Jams\Mega Byte Jam 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{531B389D-E41A-49B6-87DC-ACEAF9D25115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2105C8F2-04E7-4143-BA47-F69FC8D38F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{414D563A-DFBF-4392-9654-A48B6AA86FAF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="37">
   <si>
     <t>pipe_empty_1</t>
   </si>
@@ -127,14 +127,58 @@
   <si>
     <t>tab_continuity</t>
   </si>
+  <si>
+    <t>gauche</t>
+  </si>
+  <si>
+    <t>droit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">haut </t>
+  </si>
+  <si>
+    <t>bas</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -155,7 +199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -189,11 +233,274 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -210,13 +517,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -293,7 +666,7 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>121607</xdr:rowOff>
+      <xdr:rowOff>99741</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -646,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14FBF112-EC4E-4010-8F08-039658AE7E91}">
-  <dimension ref="A1:U169"/>
+  <dimension ref="A1:AF170"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="U19" sqref="U19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AH26" sqref="AH26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -661,14 +1034,27 @@
     <col min="17" max="18" width="6.21875" style="1" customWidth="1"/>
     <col min="19" max="19" width="16.21875" style="4" customWidth="1"/>
     <col min="20" max="20" width="4.5546875" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="11.5546875" style="1"/>
+    <col min="21" max="32" width="3.77734375" style="1" customWidth="1"/>
+    <col min="33" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
-    </row>
-    <row r="2" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E2" s="8">
+      <c r="V1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="7">
         <v>6</v>
       </c>
       <c r="F2" s="2">
@@ -710,12 +1096,20 @@
       <c r="T2" s="2">
         <v>1</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="U2" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E3" s="8">
+      <c r="V2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+    </row>
+    <row r="3" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="7">
         <v>5</v>
       </c>
       <c r="F3" s="2">
@@ -757,12 +1151,20 @@
       <c r="T3" s="2">
         <v>2</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E4" s="8">
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E4" s="7">
         <v>4</v>
       </c>
       <c r="F4" s="2">
@@ -804,12 +1206,24 @@
       <c r="T4" s="2">
         <v>3</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="8">
+      <c r="V4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="7">
         <v>3</v>
       </c>
       <c r="F5" s="2">
@@ -851,12 +1265,20 @@
       <c r="T5" s="2">
         <v>4</v>
       </c>
-      <c r="U5" s="6" t="s">
+      <c r="U5" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E6" s="8">
+      <c r="V5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E6" s="7">
         <v>2</v>
       </c>
       <c r="F6" s="2">
@@ -881,7 +1303,7 @@
         <v>8</v>
       </c>
       <c r="M6" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N6" s="2">
         <v>8</v>
@@ -898,12 +1320,20 @@
       <c r="T6" s="2">
         <v>5</v>
       </c>
-      <c r="U6" s="6" t="s">
+      <c r="U6" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E7" s="8">
+      <c r="V6" s="2"/>
+      <c r="W6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="7">
         <v>1</v>
       </c>
       <c r="F7" s="2">
@@ -928,7 +1358,7 @@
         <v>8</v>
       </c>
       <c r="M7" s="2">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N7" s="2">
         <v>8</v>
@@ -945,43 +1375,51 @@
       <c r="T7" s="2">
         <v>6</v>
       </c>
-      <c r="U7" s="6" t="s">
+      <c r="U7" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="E8" s="7"/>
-      <c r="F8" s="8">
+      <c r="V7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y7" s="2"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="E8" s="6"/>
+      <c r="F8" s="7">
         <v>1</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>2</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>3</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>4</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <v>5</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <v>6</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <v>7</v>
       </c>
-      <c r="M8" s="8">
-        <v>8</v>
-      </c>
-      <c r="N8" s="8">
+      <c r="M8" s="7">
+        <v>8</v>
+      </c>
+      <c r="N8" s="7">
         <v>9</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="7">
         <v>10</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="7">
         <v>11</v>
       </c>
       <c r="S8" s="5" t="s">
@@ -990,20 +1428,32 @@
       <c r="T8" s="2">
         <v>7</v>
       </c>
-      <c r="U8" s="6" t="s">
+      <c r="U8" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="S9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="T9" s="2">
         <v>8</v>
       </c>
-      <c r="U9" s="6"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U9" s="8"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -1023,11 +1473,17 @@
       <c r="T10" s="2">
         <v>9</v>
       </c>
-      <c r="U10" s="6" t="s">
+      <c r="U10" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y10" s="2"/>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
         <v>23</v>
@@ -1055,11 +1511,17 @@
       <c r="T11" s="2">
         <v>10</v>
       </c>
-      <c r="U11" s="6" t="s">
+      <c r="U11" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4" t="s">
@@ -1087,11 +1549,17 @@
       <c r="T12" s="2">
         <v>11</v>
       </c>
-      <c r="U12" s="6" t="s">
+      <c r="U12" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4" t="s">
@@ -1110,11 +1578,17 @@
       <c r="T13" s="2">
         <v>12</v>
       </c>
-      <c r="U13" s="6" t="s">
+      <c r="U13" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V13" s="2"/>
+      <c r="W13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+    </row>
+    <row r="14" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -1125,8 +1599,18 @@
       <c r="M14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+    </row>
+    <row r="15" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -1137,8 +1621,43 @@
       <c r="M15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="S15" s="1"/>
+      <c r="U15" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="V15" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="W15" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="X15" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y15" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z15" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA15" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD15" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE15" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF15" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -1149,11 +1668,48 @@
       <c r="M16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="S16" s="1"/>
+      <c r="T16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="U16" s="26">
+        <v>1</v>
+      </c>
+      <c r="V16" s="27">
+        <v>2</v>
+      </c>
+      <c r="W16" s="27">
+        <v>3</v>
+      </c>
+      <c r="X16" s="27">
+        <v>4</v>
+      </c>
+      <c r="Y16" s="27">
+        <v>5</v>
+      </c>
+      <c r="Z16" s="27">
+        <v>6</v>
+      </c>
+      <c r="AA16" s="27">
+        <v>7</v>
+      </c>
+      <c r="AB16" s="27">
+        <v>8</v>
+      </c>
+      <c r="AC16" s="27">
+        <v>9</v>
+      </c>
+      <c r="AD16" s="27">
+        <v>10</v>
+      </c>
+      <c r="AE16" s="27">
+        <v>11</v>
+      </c>
+      <c r="AF16" s="28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="5:32" x14ac:dyDescent="0.3">
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
@@ -1164,11 +1720,36 @@
       <c r="M17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="5" t="s">
+      <c r="S17" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="T17" s="29">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="U17" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="X17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF17" s="13"/>
+    </row>
+    <row r="18" spans="5:32" x14ac:dyDescent="0.3">
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -1179,11 +1760,26 @@
       <c r="M18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="5" t="s">
+      <c r="S18" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="T18" s="30">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="U18" s="11"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="14"/>
+    </row>
+    <row r="19" spans="5:32" x14ac:dyDescent="0.3">
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
@@ -1194,11 +1790,36 @@
       <c r="M19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-      <c r="S19" s="5" t="s">
+      <c r="S19" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="T19" s="30">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="U19" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF19" s="14"/>
+    </row>
+    <row r="20" spans="5:32" x14ac:dyDescent="0.3">
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
@@ -1209,11 +1830,26 @@
       <c r="M20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
-      <c r="S20" s="5" t="s">
+      <c r="S20" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="T20" s="30">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="U20" s="11"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="14"/>
+    </row>
+    <row r="21" spans="5:32" x14ac:dyDescent="0.3">
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -1224,11 +1860,36 @@
       <c r="M21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
-      <c r="S21" s="5" t="s">
+      <c r="S21" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="T21" s="30">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="U21" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF21" s="14"/>
+    </row>
+    <row r="22" spans="5:32" x14ac:dyDescent="0.3">
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
@@ -1239,11 +1900,26 @@
       <c r="M22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
-      <c r="S22" s="5" t="s">
+      <c r="S22" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="T22" s="30">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="U22" s="11"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="14"/>
+    </row>
+    <row r="23" spans="5:32" x14ac:dyDescent="0.3">
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -1254,104 +1930,448 @@
       <c r="M23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
-      <c r="S23" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
+      <c r="S23" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="T23" s="30">
+        <v>7</v>
+      </c>
+      <c r="U23" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF23" s="14"/>
+    </row>
+    <row r="24" spans="5:32" x14ac:dyDescent="0.3">
+      <c r="E24" s="7">
+        <v>6</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+      <c r="K24" s="2">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
-      <c r="S24" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
+      <c r="S24" s="23"/>
+      <c r="T24" s="30">
+        <v>8</v>
+      </c>
+      <c r="U24" s="11"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="14"/>
+    </row>
+    <row r="25" spans="5:32" x14ac:dyDescent="0.3">
+      <c r="E25" s="7">
+        <v>5</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+      <c r="K25" s="2">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0</v>
+      </c>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
-      <c r="S25" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
+      <c r="S25" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="T25" s="30">
+        <v>9</v>
+      </c>
+      <c r="U25" s="11"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="14"/>
+    </row>
+    <row r="26" spans="5:32" x14ac:dyDescent="0.3">
+      <c r="E26" s="7">
+        <v>4</v>
+      </c>
+      <c r="F26" s="2">
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
+      </c>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0</v>
+      </c>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
+      <c r="S26" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="T26" s="30">
+        <v>10</v>
+      </c>
+      <c r="U26" s="11"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="14"/>
+    </row>
+    <row r="27" spans="5:32" x14ac:dyDescent="0.3">
+      <c r="E27" s="7">
+        <v>3</v>
+      </c>
+      <c r="F27" s="2">
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
+        <v>1</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0</v>
+      </c>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-    </row>
-    <row r="28" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
+      <c r="S27" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="T27" s="30">
+        <v>11</v>
+      </c>
+      <c r="U27" s="11"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="14"/>
+    </row>
+    <row r="28" spans="5:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E28" s="7">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
+        <v>1</v>
+      </c>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0</v>
+      </c>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-    </row>
-    <row r="29" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
+      <c r="S28" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="T28" s="25">
+        <v>12</v>
+      </c>
+      <c r="U28" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="X28" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA28" s="16"/>
+      <c r="AB28" s="16"/>
+      <c r="AC28" s="16"/>
+      <c r="AD28" s="16"/>
+      <c r="AE28" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF28" s="17"/>
+    </row>
+    <row r="29" spans="5:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E29" s="7">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>1</v>
+      </c>
+      <c r="J29" s="2">
+        <v>1</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0</v>
+      </c>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-    </row>
-    <row r="30" spans="6:19" x14ac:dyDescent="0.3">
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
+      <c r="S29" s="1"/>
+    </row>
+    <row r="30" spans="5:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E30" s="6"/>
+      <c r="F30" s="7">
+        <v>1</v>
+      </c>
+      <c r="G30" s="7">
+        <v>2</v>
+      </c>
+      <c r="H30" s="7">
+        <v>3</v>
+      </c>
+      <c r="I30" s="7">
+        <v>4</v>
+      </c>
+      <c r="J30" s="7">
+        <v>5</v>
+      </c>
+      <c r="K30" s="7">
+        <v>6</v>
+      </c>
+      <c r="L30" s="7">
+        <v>7</v>
+      </c>
+      <c r="M30" s="7">
+        <v>8</v>
+      </c>
+      <c r="N30" s="7">
+        <v>9</v>
+      </c>
+      <c r="O30" s="7">
+        <v>10</v>
+      </c>
+      <c r="P30" s="7">
+        <v>11</v>
+      </c>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-    </row>
-    <row r="31" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="S30" s="1"/>
+      <c r="U30" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="V30" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="W30" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="X30" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y30" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z30" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA30" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB30" s="20"/>
+      <c r="AC30" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD30" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE30" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="AF30" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="5:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -1362,8 +2382,48 @@
       <c r="M31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-    </row>
-    <row r="32" spans="6:19" x14ac:dyDescent="0.3">
+      <c r="S31" s="1"/>
+      <c r="T31" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="U31" s="26">
+        <v>1</v>
+      </c>
+      <c r="V31" s="27">
+        <v>2</v>
+      </c>
+      <c r="W31" s="27">
+        <v>3</v>
+      </c>
+      <c r="X31" s="27">
+        <v>4</v>
+      </c>
+      <c r="Y31" s="27">
+        <v>5</v>
+      </c>
+      <c r="Z31" s="27">
+        <v>6</v>
+      </c>
+      <c r="AA31" s="27">
+        <v>7</v>
+      </c>
+      <c r="AB31" s="27">
+        <v>8</v>
+      </c>
+      <c r="AC31" s="27">
+        <v>9</v>
+      </c>
+      <c r="AD31" s="27">
+        <v>10</v>
+      </c>
+      <c r="AE31" s="27">
+        <v>11</v>
+      </c>
+      <c r="AF31" s="28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="5:32" x14ac:dyDescent="0.3">
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -1374,8 +2434,26 @@
       <c r="M32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-    </row>
-    <row r="33" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="S32" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="T32" s="29">
+        <v>1</v>
+      </c>
+      <c r="U32" s="10"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="9"/>
+      <c r="AD32" s="9"/>
+      <c r="AE32" s="9"/>
+      <c r="AF32" s="13"/>
+    </row>
+    <row r="33" spans="6:32" x14ac:dyDescent="0.3">
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
@@ -1386,8 +2464,36 @@
       <c r="M33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-    </row>
-    <row r="34" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="S33" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="T33" s="30">
+        <v>2</v>
+      </c>
+      <c r="U33" s="11"/>
+      <c r="V33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="14"/>
+    </row>
+    <row r="34" spans="6:32" x14ac:dyDescent="0.3">
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -1398,8 +2504,36 @@
       <c r="M34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
-    </row>
-    <row r="35" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="S34" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="T34" s="30">
+        <v>3</v>
+      </c>
+      <c r="U34" s="11"/>
+      <c r="V34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="14"/>
+    </row>
+    <row r="35" spans="6:32" x14ac:dyDescent="0.3">
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -1410,8 +2544,26 @@
       <c r="M35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
-    </row>
-    <row r="36" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="S35" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="T35" s="30">
+        <v>4</v>
+      </c>
+      <c r="U35" s="11"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="14"/>
+    </row>
+    <row r="36" spans="6:32" x14ac:dyDescent="0.3">
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -1422,8 +2574,26 @@
       <c r="M36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
-    </row>
-    <row r="37" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="S36" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="T36" s="30">
+        <v>5</v>
+      </c>
+      <c r="U36" s="11"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="14"/>
+    </row>
+    <row r="37" spans="6:32" x14ac:dyDescent="0.3">
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -1434,8 +2604,36 @@
       <c r="M37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
-    </row>
-    <row r="38" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="S37" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="T37" s="30">
+        <v>6</v>
+      </c>
+      <c r="U37" s="11"/>
+      <c r="V37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="14"/>
+    </row>
+    <row r="38" spans="6:32" x14ac:dyDescent="0.3">
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -1446,8 +2644,36 @@
       <c r="M38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
-    </row>
-    <row r="39" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="S38" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="T38" s="30">
+        <v>7</v>
+      </c>
+      <c r="U38" s="11"/>
+      <c r="V38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="14"/>
+    </row>
+    <row r="39" spans="6:32" x14ac:dyDescent="0.3">
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -1458,8 +2684,24 @@
       <c r="M39" s="4"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
-    </row>
-    <row r="40" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="S39" s="23"/>
+      <c r="T39" s="30">
+        <v>8</v>
+      </c>
+      <c r="U39" s="11"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="14"/>
+    </row>
+    <row r="40" spans="6:32" x14ac:dyDescent="0.3">
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -1470,8 +2712,36 @@
       <c r="M40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
-    </row>
-    <row r="41" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="S40" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="T40" s="30">
+        <v>9</v>
+      </c>
+      <c r="U40" s="11"/>
+      <c r="V40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="X40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="14"/>
+    </row>
+    <row r="41" spans="6:32" x14ac:dyDescent="0.3">
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
@@ -1482,8 +2752,26 @@
       <c r="M41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
-    </row>
-    <row r="42" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="S41" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="T41" s="30">
+        <v>10</v>
+      </c>
+      <c r="U41" s="11"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="2"/>
+      <c r="AC41" s="2"/>
+      <c r="AD41" s="2"/>
+      <c r="AE41" s="2"/>
+      <c r="AF41" s="14"/>
+    </row>
+    <row r="42" spans="6:32" x14ac:dyDescent="0.3">
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -1494,8 +2782,26 @@
       <c r="M42" s="4"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
-    </row>
-    <row r="43" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="S42" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="T42" s="30">
+        <v>11</v>
+      </c>
+      <c r="U42" s="11"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2"/>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="14"/>
+    </row>
+    <row r="43" spans="6:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -1506,8 +2812,26 @@
       <c r="M43" s="4"/>
       <c r="Q43" s="4"/>
       <c r="R43" s="4"/>
-    </row>
-    <row r="44" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="S43" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="T43" s="25">
+        <v>12</v>
+      </c>
+      <c r="U43" s="15"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="16"/>
+      <c r="Z43" s="16"/>
+      <c r="AA43" s="16"/>
+      <c r="AB43" s="16"/>
+      <c r="AC43" s="16"/>
+      <c r="AD43" s="16"/>
+      <c r="AE43" s="16"/>
+      <c r="AF43" s="17"/>
+    </row>
+    <row r="44" spans="6:32" x14ac:dyDescent="0.3">
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -1519,7 +2843,7 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="4"/>
     </row>
-    <row r="45" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="6:32" x14ac:dyDescent="0.3">
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -1531,7 +2855,7 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="4"/>
     </row>
-    <row r="46" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="6:32" x14ac:dyDescent="0.3">
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -1543,7 +2867,7 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="4"/>
     </row>
-    <row r="47" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="6:32" x14ac:dyDescent="0.3">
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -1555,7 +2879,7 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="4"/>
     </row>
-    <row r="48" spans="6:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="6:32" x14ac:dyDescent="0.3">
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -2116,9 +3440,6 @@
       <c r="K94" s="4"/>
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
-      <c r="N94" s="4"/>
-      <c r="O94" s="4"/>
-      <c r="P94" s="4"/>
       <c r="Q94" s="4"/>
       <c r="R94" s="4"/>
     </row>
@@ -3246,6 +4567,21 @@
       <c r="P169" s="4"/>
       <c r="Q169" s="4"/>
       <c r="R169" s="4"/>
+    </row>
+    <row r="170" spans="6:18" x14ac:dyDescent="0.3">
+      <c r="F170" s="4"/>
+      <c r="G170" s="4"/>
+      <c r="H170" s="4"/>
+      <c r="I170" s="4"/>
+      <c r="J170" s="4"/>
+      <c r="K170" s="4"/>
+      <c r="L170" s="4"/>
+      <c r="M170" s="4"/>
+      <c r="N170" s="4"/>
+      <c r="O170" s="4"/>
+      <c r="P170" s="4"/>
+      <c r="Q170" s="4"/>
+      <c r="R170" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
